--- a/xlsx/利比亚_intext.xlsx
+++ b/xlsx/利比亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1034">
   <si>
     <t>利比亚</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_利比亚</t>
+    <t>阿拉伯语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%9B%BD%E6%97%97</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%EF%BC%8C%E5%88%A9%E6%AF%94%E4%BA%9A%EF%BC%8C%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B8%83%E9%AD%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>托布魯克</t>
+    <t>托布鲁克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%94%E8%98%AD%E5%B0%BC%E5%8A%A0</t>
   </si>
   <si>
-    <t>昔蘭尼加</t>
+    <t>昔兰尼加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%8C%E5%8D%80</t>
   </si>
   <si>
-    <t>東二區</t>
+    <t>东二区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A_(%E5%88%A9%E6%AF%94%E4%BA%9A)</t>
@@ -221,25 +221,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%A7%94%E5%93%A1%E6%9C%83_(%E5%88%A9%E6%AF%94%E4%BA%9E)</t>
   </si>
   <si>
-    <t>總統委員會 (利比亞)</t>
+    <t>总统委员会 (利比亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E6%80%BB%E7%BB%9F%E5%A7%94%E5%91%98%E4%BC%9A%E4%B8%BB%E5%B8%AD</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%80%B6%E8%8C%B2%C2%B7%E8%96%A9%E6%8B%89%E5%82%91</t>
   </si>
   <si>
-    <t>法耶茲·薩拉傑</t>
+    <t>法耶兹·萨拉杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%9B%BD%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A%E4%B8%BB%E5%B8%AD</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E6%80%BB%E7%90%86</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E7%AC%AC%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>利比亞第納爾</t>
+    <t>利比亚第纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>獨立日</t>
+    <t>独立日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%85%A8%E5%9B%BD%E8%BF%87%E6%B8%A1%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.ly</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%AD%A6%E8%A3%9D%E9%83%A8%E9%9A%8A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國武裝部隊列表</t>
+    <t>各国武装部队列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E6%AD%A6%E8%A3%85%E5%8A%9B%E9%87%8F</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
+    <t>苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
+    <t>阿尔及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>利比亞王國</t>
+    <t>利比亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%98%E7%B5%90%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>民族團結政府</t>
+    <t>民族团结政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E9%98%BF%E9%9B%B7%E6%A0%BC%E4%BA%BA</t>
@@ -593,19 +593,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧圖曼帝國</t>
+    <t>奥图曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%9C%9F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>意土戰爭</t>
+    <t>意土战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -617,9 +614,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>意大利王國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E9%9D%9E%E6%B4%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>德意志非洲軍</t>
+    <t>德意志非洲军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%84%E6%B0%8F%E6%B8%A9%E5%BA%A6</t>
@@ -641,31 +635,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%BE%B7%E9%87%8C%E6%96%AF%E4%B8%80%E4%B8%96_(%E5%88%A9%E6%AF%94%E4%BA%9E)</t>
   </si>
   <si>
-    <t>伊德里斯一世 (利比亞)</t>
+    <t>伊德里斯一世 (利比亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%8D%E5%AE%98</t>
   </si>
   <si>
-    <t>自由軍官</t>
+    <t>自由军官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
@@ -677,9 +671,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>苏丹共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E8%88%AA%E7%A9%BA103%E8%88%AA%E7%8F%AD</t>
   </si>
   <si>
@@ -689,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E8%A3%81</t>
@@ -725,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E7%90%86%E6%9C%831973%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國安理會1973號決議</t>
+    <t>联合国安理会1973号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%A4%9A%E5%9B%BD%E6%AD%A6%E8%A3%85%E5%B9%B2%E6%B6%89%E5%88%A9%E6%AF%94%E4%BA%9A</t>
@@ -749,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/2012%E5%B9%B4%E7%8F%AD%E5%8A%A0%E8%A5%BF%E6%94%BB%E6%93%8A%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2012年班加西攻擊事件</t>
+    <t>2012年班加西攻击事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E5%A4%AB%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF</t>
@@ -773,15 +764,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
-    <t>利比亞地理</t>
+    <t>利比亚地理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
   </si>
   <si>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%87%E6%8B%89%E5%A1%94</t>
   </si>
   <si>
-    <t>米蘇拉塔</t>
+    <t>米苏拉塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8E%E7%BB%B4%E8%80%B6</t>
@@ -1037,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -1103,25 +1091,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯合政府</t>
+    <t>联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E4%B9%89</t>
@@ -1133,39 +1121,36 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
   </si>
   <si>
-    <t>英國首相</t>
+    <t>英国首相</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>布萊爾</t>
+    <t>布莱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%B0%B4%E6%89%81</t>
   </si>
   <si>
-    <t>陳水扁</t>
+    <t>陈水扁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E6%8C%81%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9%E7%9A%84%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>支持恐怖主義的國家</t>
+    <t>支持恐怖主义的国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
   </si>
   <si>
@@ -1181,9 +1166,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
@@ -1313,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>利比亞交通</t>
+    <t>利比亚交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C</t>
@@ -1331,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E6%B8%AF</t>
   </si>
   <si>
-    <t>亞歷山大港</t>
+    <t>亚历山大港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB</t>
@@ -1349,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>利比亞航空</t>
+    <t>利比亚航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%9E%E8%88%AA%E7%A9%BA</t>
@@ -1385,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
   </si>
   <si>
-    <t>海灣</t>
+    <t>海湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E8%BF%88%E5%B0%94%C2%B7%E5%8D%A1%E6%89%8E%E8%8F%B2</t>
@@ -1397,31 +1379,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E7%A7%91%E6%99%AE%E7%89%B9%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>亞歷山大科普特正教會</t>
+    <t>亚历山大科普特正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>聖公會</t>
+    <t>圣公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E9%BB%8E%E6%B3%A2%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
@@ -1439,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>伊斯蘭文化</t>
+    <t>伊斯兰文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%8D%9C%E6%8B%89%E6%B3%B0</t>
@@ -1457,9 +1436,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%96%87%E5%8C%96%E9%81%97%E4%BA%A7</t>
   </si>
   <si>
@@ -1535,13 +1511,10 @@
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4%E5%88%A9%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>2011年利比亞內戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>利比亞國家元首列表</t>
+    <t>利比亚国家元首列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E6%94%BF%E5%BA%9C%E9%A6%96%E8%84%91%E5%88%97%E8%A1%A8</t>
@@ -1601,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -1631,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1697,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1865,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1895,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1919,7 +1892,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1985,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -2045,13 +2018,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -2093,13 +2066,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -2135,7 +2108,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
@@ -2147,13 +2120,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -2165,31 +2135,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
+    <t>巴勒斯坦国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -2225,21 +2195,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
   </si>
   <si>
-    <t>约旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9B%BD</t>
   </si>
   <si>
-    <t>巴勒斯坦国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%BD%97%E6%B2%B3</t>
   </si>
   <si>
@@ -2297,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
@@ -2387,7 +2348,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2441,19 +2402,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2471,9 +2432,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
@@ -2519,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B2%9B</t>
@@ -2627,19 +2585,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6%E6%B2%B3%E8%A5%BF%E5%B2%B8</t>
@@ -2669,7 +2627,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>直布羅陀海峽</t>
+    <t>直布罗陀海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2681,13 +2639,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9F%9F</t>
@@ -2699,7 +2654,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>地中海聯盟</t>
+    <t>地中海联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -2711,7 +2666,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A</t>
@@ -2729,7 +2684,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -2747,15 +2702,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
   </si>
   <si>
@@ -2765,19 +2717,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -2795,19 +2747,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -2819,7 +2771,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -2831,7 +2783,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -2843,7 +2795,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
@@ -2873,7 +2825,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -2885,7 +2837,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -3029,13 +2981,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -3095,7 +3044,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -3143,7 +3092,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3161,13 +3110,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3831,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -6554,7 +6503,7 @@
         <v>191</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6580,10 +6529,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" t="s">
         <v>193</v>
-      </c>
-      <c r="F106" t="s">
-        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6609,10 +6558,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" t="s">
         <v>195</v>
-      </c>
-      <c r="F107" t="s">
-        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6638,10 +6587,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>196</v>
+      </c>
+      <c r="F108" t="s">
         <v>197</v>
-      </c>
-      <c r="F108" t="s">
-        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>7</v>
@@ -6667,10 +6616,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6696,10 +6645,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -6725,10 +6674,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6754,10 +6703,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6783,10 +6732,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>5</v>
@@ -6812,10 +6761,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -6841,10 +6790,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>9</v>
@@ -6870,10 +6819,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6899,10 +6848,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6928,10 +6877,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G118" t="n">
         <v>6</v>
@@ -6986,10 +6935,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -7044,10 +6993,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -7073,10 +7022,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G123" t="n">
         <v>6</v>
@@ -7102,10 +7051,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -7131,10 +7080,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -7160,10 +7109,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7189,10 +7138,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G127" t="n">
         <v>8</v>
@@ -7218,10 +7167,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G128" t="n">
         <v>12</v>
@@ -7247,10 +7196,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7276,10 +7225,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7305,10 +7254,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7363,10 +7312,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7392,10 +7341,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7421,10 +7370,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7479,10 +7428,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -7508,10 +7457,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7537,10 +7486,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7595,10 +7544,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="G141" t="n">
         <v>11</v>
@@ -7624,10 +7573,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7653,10 +7602,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F143" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G143" t="n">
         <v>10</v>
@@ -7682,10 +7631,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F144" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7711,10 +7660,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F145" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7740,10 +7689,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F146" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7769,10 +7718,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7798,10 +7747,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7827,10 +7776,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7856,10 +7805,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7885,10 +7834,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7914,10 +7863,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7943,10 +7892,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7972,10 +7921,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8001,10 +7950,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8030,10 +7979,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8059,10 +8008,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8088,10 +8037,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8117,10 +8066,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8146,10 +8095,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F160" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8175,10 +8124,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F161" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8204,10 +8153,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F162" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8233,10 +8182,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8262,10 +8211,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8291,10 +8240,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8320,10 +8269,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8349,10 +8298,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8378,10 +8327,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8407,10 +8356,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8436,10 +8385,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8465,10 +8414,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8494,10 +8443,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8523,10 +8472,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8552,10 +8501,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8581,10 +8530,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8610,10 +8559,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8639,10 +8588,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8668,10 +8617,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -8697,10 +8646,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8726,10 +8675,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8755,10 +8704,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8784,10 +8733,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8813,10 +8762,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8842,10 +8791,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8871,10 +8820,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8900,10 +8849,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8929,10 +8878,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8958,10 +8907,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8987,10 +8936,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9016,10 +8965,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9045,10 +8994,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9074,10 +9023,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9103,10 +9052,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9161,10 +9110,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F195" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -9219,10 +9168,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9335,10 +9284,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F201" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9364,10 +9313,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F202" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9393,10 +9342,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F203" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9422,10 +9371,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F204" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9451,10 +9400,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F205" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9480,10 +9429,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F206" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9509,10 +9458,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F207" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G207" t="n">
         <v>6</v>
@@ -9538,10 +9487,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F208" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -9567,10 +9516,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F209" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9596,10 +9545,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F210" t="s">
-        <v>382</v>
+        <v>208</v>
       </c>
       <c r="G210" t="n">
         <v>4</v>
@@ -9625,10 +9574,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F211" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G211" t="n">
         <v>6</v>
@@ -9654,10 +9603,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F212" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -9683,10 +9632,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F213" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9712,10 +9661,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F214" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9741,10 +9690,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F215" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9770,10 +9719,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F216" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G216" t="n">
         <v>15</v>
@@ -9799,10 +9748,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F217" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9828,10 +9777,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F218" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -9857,10 +9806,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F219" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9886,10 +9835,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F220" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9915,10 +9864,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F221" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9944,10 +9893,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F222" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9973,10 +9922,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F223" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10002,10 +9951,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F224" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10031,10 +9980,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F225" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10060,10 +10009,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F226" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G226" t="n">
         <v>28</v>
@@ -10089,10 +10038,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F227" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10118,10 +10067,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F228" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10147,10 +10096,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10176,10 +10125,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F230" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10205,10 +10154,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10234,10 +10183,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F232" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10263,10 +10212,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F233" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -10292,10 +10241,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F234" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10321,10 +10270,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F235" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10350,10 +10299,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F236" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10379,10 +10328,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F237" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G237" t="n">
         <v>4</v>
@@ -10408,10 +10357,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F238" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -10437,10 +10386,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F239" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10466,10 +10415,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F240" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10495,10 +10444,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F241" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10524,10 +10473,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F242" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10553,10 +10502,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F243" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10582,10 +10531,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F244" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10611,10 +10560,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F245" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10640,10 +10589,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F246" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10669,10 +10618,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F247" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -10698,10 +10647,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F248" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -10727,10 +10676,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F249" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10756,10 +10705,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>52</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10785,10 +10734,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10814,10 +10763,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10843,10 +10792,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10872,10 +10821,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10901,10 +10850,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10930,10 +10879,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10959,10 +10908,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10988,10 +10937,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -11017,10 +10966,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -11046,10 +10995,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11075,10 +11024,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -11104,10 +11053,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -11133,10 +11082,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11162,10 +11111,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11191,10 +11140,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11220,10 +11169,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11249,10 +11198,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11278,10 +11227,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11307,10 +11256,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11336,10 +11285,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11365,10 +11314,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11394,10 +11343,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11423,10 +11372,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>108</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11452,10 +11401,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F274" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11481,10 +11430,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F275" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11510,10 +11459,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F276" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11539,10 +11488,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F277" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11568,10 +11517,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F278" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11597,10 +11546,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F279" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G279" t="n">
         <v>11</v>
@@ -11626,10 +11575,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F280" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G280" t="n">
         <v>17</v>
@@ -11655,10 +11604,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F281" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11684,10 +11633,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G282" t="n">
         <v>10</v>
@@ -11713,10 +11662,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F283" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11742,10 +11691,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F284" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -11771,10 +11720,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F285" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11800,10 +11749,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F286" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
@@ -11829,10 +11778,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F287" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11858,10 +11807,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F288" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11887,10 +11836,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F289" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11916,10 +11865,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F290" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11945,10 +11894,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F291" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11974,10 +11923,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F292" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -12003,10 +11952,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F293" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G293" t="n">
         <v>6</v>
@@ -12032,10 +11981,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F294" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -12061,10 +12010,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F295" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -12090,10 +12039,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F296" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -12119,10 +12068,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F297" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -12148,10 +12097,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F298" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -12177,10 +12126,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F299" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12206,10 +12155,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F300" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G300" t="n">
         <v>3</v>
@@ -12235,10 +12184,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F301" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -12264,10 +12213,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F302" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G302" t="n">
         <v>3</v>
@@ -12293,10 +12242,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F303" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -12322,10 +12271,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F304" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12351,10 +12300,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F305" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12380,10 +12329,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F306" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12409,10 +12358,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F307" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12438,10 +12387,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F308" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -12467,10 +12416,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F309" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12496,10 +12445,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F310" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G310" t="n">
         <v>4</v>
@@ -12525,10 +12474,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F311" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12554,10 +12503,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F312" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12583,10 +12532,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F313" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12612,10 +12561,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F314" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -12641,10 +12590,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F315" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12670,10 +12619,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F316" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12699,10 +12648,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F317" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12728,10 +12677,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F318" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12757,10 +12706,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F319" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G319" t="n">
         <v>2</v>
@@ -12786,10 +12735,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F320" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12815,10 +12764,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F321" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12844,10 +12793,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F322" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G322" t="n">
         <v>4</v>
@@ -12873,10 +12822,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F323" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12902,10 +12851,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F324" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12931,10 +12880,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F325" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12960,10 +12909,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F326" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12989,10 +12938,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F327" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -13018,10 +12967,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F328" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G328" t="n">
         <v>4</v>
@@ -13047,10 +12996,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F329" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13076,10 +13025,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F330" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -13105,10 +13054,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F331" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -13134,10 +13083,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F332" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -13163,10 +13112,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F333" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13192,10 +13141,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F334" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13221,10 +13170,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F335" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13250,10 +13199,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F336" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13279,10 +13228,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F337" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13308,10 +13257,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F338" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13337,10 +13286,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F339" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13366,10 +13315,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F340" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13395,10 +13344,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F341" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13424,10 +13373,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F342" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13453,10 +13402,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F343" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13482,10 +13431,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F344" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13511,10 +13460,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F345" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13540,10 +13489,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F346" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13569,10 +13518,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F347" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13598,10 +13547,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F348" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13627,10 +13576,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F349" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13656,10 +13605,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F350" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13685,10 +13634,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F351" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -13714,10 +13663,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F352" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13743,10 +13692,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F353" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13772,10 +13721,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F354" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13801,10 +13750,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F355" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13830,10 +13779,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F356" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13859,10 +13808,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F357" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -13888,10 +13837,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F358" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13917,10 +13866,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F359" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -13946,10 +13895,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F360" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13975,10 +13924,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F361" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G361" t="n">
         <v>5</v>
@@ -14004,10 +13953,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F362" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="G362" t="n">
         <v>5</v>
@@ -14033,10 +13982,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F363" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -14062,10 +14011,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F364" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14091,10 +14040,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F365" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14120,10 +14069,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F366" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14149,10 +14098,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F367" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14178,10 +14127,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F368" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14207,10 +14156,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F369" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -14236,10 +14185,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F370" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -14265,10 +14214,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F371" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14294,10 +14243,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F372" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G372" t="n">
         <v>4</v>
@@ -14323,10 +14272,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F373" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G373" t="n">
         <v>4</v>
@@ -14352,10 +14301,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F374" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14381,10 +14330,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F375" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14410,10 +14359,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F376" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14439,10 +14388,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F377" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G377" t="n">
         <v>6</v>
@@ -14468,10 +14417,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F378" t="s">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="G378" t="n">
         <v>82</v>
@@ -14497,10 +14446,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F379" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14526,10 +14475,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F380" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G380" t="n">
         <v>4</v>
@@ -14555,10 +14504,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F381" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14584,10 +14533,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F382" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14613,10 +14562,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F383" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14642,10 +14591,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F384" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14671,10 +14620,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F385" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14700,10 +14649,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F386" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14729,10 +14678,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F387" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G387" t="n">
         <v>5</v>
@@ -14758,10 +14707,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F388" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G388" t="n">
         <v>4</v>
@@ -14787,10 +14736,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F389" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14816,10 +14765,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F390" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14845,10 +14794,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F391" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14874,10 +14823,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F392" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -14903,10 +14852,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F393" t="s">
-        <v>738</v>
+        <v>697</v>
       </c>
       <c r="G393" t="n">
         <v>5</v>
@@ -14932,10 +14881,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="F394" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
       <c r="G394" t="n">
         <v>6</v>
@@ -14961,10 +14910,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F395" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14990,10 +14939,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="F396" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -15019,10 +14968,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="F397" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15048,10 +14997,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="F398" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15077,10 +15026,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="F399" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15106,10 +15055,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="F400" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15135,10 +15084,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F401" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15164,10 +15113,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F402" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -15193,10 +15142,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F403" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15222,10 +15171,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F404" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15251,10 +15200,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F405" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15280,10 +15229,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F406" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15309,10 +15258,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F407" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G407" t="n">
         <v>3</v>
@@ -15338,10 +15287,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="F408" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -15367,10 +15316,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="F409" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -15396,10 +15345,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="F410" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15425,10 +15374,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F411" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G411" t="n">
         <v>8</v>
@@ -15454,10 +15403,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="F412" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15483,10 +15432,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="F413" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15512,10 +15461,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F414" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15541,10 +15490,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F415" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -15570,10 +15519,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="F416" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15599,10 +15548,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="F417" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G417" t="n">
         <v>2</v>
@@ -15628,10 +15577,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="F418" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15657,10 +15606,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="F419" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15686,10 +15635,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="F420" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15715,10 +15664,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="F421" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15744,10 +15693,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="F422" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15773,10 +15722,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="F423" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="G423" t="n">
         <v>5</v>
@@ -15802,10 +15751,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="F424" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15831,10 +15780,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="F425" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15860,10 +15809,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F426" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15889,10 +15838,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="F427" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15918,10 +15867,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F428" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15947,10 +15896,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F429" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15976,10 +15925,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="F430" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -16005,10 +15954,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F431" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16034,10 +15983,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="F432" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16063,10 +16012,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="F433" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16092,10 +16041,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="F434" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16121,10 +16070,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="F435" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16150,10 +16099,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F436" t="s">
-        <v>818</v>
+        <v>210</v>
       </c>
       <c r="G436" t="n">
         <v>11</v>
@@ -16179,10 +16128,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F437" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -16208,10 +16157,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F438" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16237,10 +16186,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F439" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16266,10 +16215,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="F440" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16295,10 +16244,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F441" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16324,10 +16273,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="F442" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G442" t="n">
         <v>2</v>
@@ -16353,10 +16302,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="F443" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16382,10 +16331,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F444" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16411,10 +16360,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F445" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -16440,10 +16389,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F446" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16469,10 +16418,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F447" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16498,13 +16447,13 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="F448" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="G448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -16527,10 +16476,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F449" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16556,10 +16505,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="F450" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16585,13 +16534,13 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="F451" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="G451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H451" t="s">
         <v>4</v>
@@ -16614,10 +16563,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F452" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16643,10 +16592,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="F453" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16672,10 +16621,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F454" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -16701,10 +16650,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F455" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -16730,10 +16679,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F456" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="G456" t="n">
         <v>2</v>
@@ -16759,10 +16708,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="F457" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16817,13 +16766,13 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="F459" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="G459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H459" t="s">
         <v>4</v>
@@ -16846,10 +16795,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="F460" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -16875,10 +16824,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="F461" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16904,10 +16853,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="F462" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -16933,10 +16882,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="F463" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16962,10 +16911,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="F464" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16991,10 +16940,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="F465" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17026,7 +16975,7 @@
         <v>138</v>
       </c>
       <c r="G466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H466" t="s">
         <v>4</v>
@@ -17049,10 +16998,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="F467" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="G467" t="n">
         <v>3</v>
@@ -17078,10 +17027,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="F468" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="G468" t="n">
         <v>3</v>
@@ -17107,10 +17056,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="F469" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17136,10 +17085,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F470" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17165,10 +17114,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F471" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -17194,10 +17143,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F472" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17223,10 +17172,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F473" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -17252,10 +17201,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="F474" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -17281,10 +17230,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="F475" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17310,10 +17259,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="F476" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17339,10 +17288,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="F477" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17368,10 +17317,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="F478" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17397,10 +17346,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="F479" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -17426,10 +17375,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="F480" t="s">
-        <v>888</v>
+        <v>206</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17455,10 +17404,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="F481" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17484,10 +17433,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F482" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17513,10 +17462,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F483" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17542,10 +17491,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="F484" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17571,10 +17520,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F485" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17600,10 +17549,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F486" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17629,10 +17578,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="F487" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17658,10 +17607,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="F488" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17687,10 +17636,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="F489" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17716,10 +17665,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="F490" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17745,10 +17694,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="F491" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17774,10 +17723,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F492" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17803,10 +17752,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F493" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17832,10 +17781,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F494" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17861,10 +17810,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F495" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17890,10 +17839,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>891</v>
+        <v>876</v>
       </c>
       <c r="F496" t="s">
-        <v>892</v>
+        <v>877</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17919,10 +17868,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="F497" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17948,10 +17897,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="F498" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17977,10 +17926,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="F499" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18006,10 +17955,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>893</v>
+        <v>878</v>
       </c>
       <c r="F500" t="s">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="G500" t="n">
         <v>5</v>
@@ -18035,10 +17984,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>895</v>
+        <v>880</v>
       </c>
       <c r="F501" t="s">
-        <v>896</v>
+        <v>881</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18064,10 +18013,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>897</v>
+        <v>882</v>
       </c>
       <c r="F502" t="s">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18093,10 +18042,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>899</v>
+        <v>884</v>
       </c>
       <c r="F503" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18122,10 +18071,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="F504" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18151,10 +18100,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>901</v>
+        <v>886</v>
       </c>
       <c r="F505" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18180,10 +18129,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="F506" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18209,10 +18158,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="F507" t="s">
-        <v>906</v>
+        <v>891</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18238,10 +18187,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="F508" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18267,10 +18216,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="F509" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18296,10 +18245,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="F510" t="s">
-        <v>912</v>
+        <v>854</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18325,10 +18274,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="F511" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18354,10 +18303,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="F512" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18383,10 +18332,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="F513" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18412,10 +18361,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="F514" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18441,10 +18390,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="F515" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18470,10 +18419,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="F516" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18499,10 +18448,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="F517" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18528,10 +18477,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="F518" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18557,10 +18506,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="F519" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18586,10 +18535,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="F520" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18615,10 +18564,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="F521" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18644,10 +18593,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="F522" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18673,10 +18622,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F523" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18702,10 +18651,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="F524" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18731,10 +18680,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="F525" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18760,10 +18709,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="F526" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18789,10 +18738,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F527" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G527" t="n">
         <v>3</v>
@@ -18818,10 +18767,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="F528" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -18847,10 +18796,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="F529" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -18876,10 +18825,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="F530" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -18905,10 +18854,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="F531" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -18934,10 +18883,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="F532" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18963,10 +18912,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="F533" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18992,10 +18941,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="F534" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19021,10 +18970,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="F535" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19050,10 +18999,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="F536" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19079,10 +19028,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="F537" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19108,10 +19057,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="F538" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19137,10 +19086,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="F539" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19166,10 +19115,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F540" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19195,10 +19144,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="F541" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19224,10 +19173,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="F542" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19253,10 +19202,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F543" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G543" t="n">
         <v>3</v>
@@ -19282,10 +19231,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="F544" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19311,10 +19260,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="F545" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19340,10 +19289,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="F546" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19369,10 +19318,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="F547" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19398,10 +19347,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="F548" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19427,10 +19376,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="F549" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="G549" t="n">
         <v>3</v>
@@ -19456,10 +19405,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="F550" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19485,10 +19434,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="F551" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -19514,10 +19463,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="F552" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -19543,10 +19492,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="F553" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19572,10 +19521,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="F554" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -19601,10 +19550,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="F555" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19630,10 +19579,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="F556" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19659,10 +19608,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="F557" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19688,10 +19637,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="F558" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19717,10 +19666,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="F559" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19746,10 +19695,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1003</v>
+        <v>987</v>
       </c>
       <c r="F560" t="s">
-        <v>1004</v>
+        <v>797</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19775,10 +19724,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1005</v>
+        <v>988</v>
       </c>
       <c r="F561" t="s">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19804,10 +19753,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="F562" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19833,10 +19782,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1009</v>
+        <v>992</v>
       </c>
       <c r="F563" t="s">
-        <v>1010</v>
+        <v>993</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19862,10 +19811,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1011</v>
+        <v>994</v>
       </c>
       <c r="F564" t="s">
-        <v>1012</v>
+        <v>995</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -19891,10 +19840,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="F565" t="s">
-        <v>1014</v>
+        <v>997</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -19920,10 +19869,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F566" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -19949,10 +19898,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1015</v>
+        <v>998</v>
       </c>
       <c r="F567" t="s">
-        <v>1016</v>
+        <v>999</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -19978,10 +19927,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="F568" t="s">
-        <v>1018</v>
+        <v>1001</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20007,10 +19956,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="F569" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="G569" t="n">
         <v>3</v>
@@ -20036,10 +19985,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="F570" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20065,10 +20014,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="F571" t="s">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20094,10 +20043,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="F572" t="s">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20123,10 +20072,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="F573" t="s">
-        <v>1026</v>
+        <v>1009</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20152,10 +20101,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F574" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="G574" t="n">
         <v>3</v>
@@ -20181,10 +20130,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="F575" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20210,10 +20159,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="F576" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20239,10 +20188,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="F577" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20268,10 +20217,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="F578" t="s">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="G578" t="n">
         <v>2</v>
@@ -20297,10 +20246,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="F579" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20326,10 +20275,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="F580" t="s">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20355,10 +20304,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="F581" t="s">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20384,10 +20333,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1039</v>
+        <v>1022</v>
       </c>
       <c r="F582" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20413,10 +20362,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F583" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -20442,10 +20391,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="F584" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="G584" t="n">
         <v>3</v>
@@ -20471,10 +20420,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="F585" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -20500,10 +20449,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="F586" t="s">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -20529,10 +20478,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="F587" t="s">
-        <v>1048</v>
+        <v>1031</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -20558,10 +20507,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="F588" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>

--- a/xlsx/利比亚_intext.xlsx
+++ b/xlsx/利比亚_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿拉伯語</t>
   </si>
   <si>
-    <t>政策_政策_美國_利比亚</t>
+    <t>体育运动_体育运动_古埃及_利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A%E5%9B%BD%E6%97%97</t>
